--- a/output/only_primer/one_plasmid_design_result.xlsx
+++ b/output/only_primer/one_plasmid_design_result.xlsx
@@ -67,244 +67,244 @@
     <t>Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875</t>
   </si>
   <si>
-    <t>CCAGGTCTCAGATCCTAAAGCCCTGCCCACCGGATG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTAAGCGCCCGGGCATGTACAT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTTCATCATCGGCGGCCACATGT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTGGAATCACAGGCAGGGTGGGA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTAACCCAAACCCTGCCCGAAG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTGGCCCAATGTGGTCCCTCGG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTCAACAGCTCCTCCTGGGCCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTGCAGGACAATAGCGTTACCCTGGT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTTTACCGGACACGCGCAACAC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTTCATGAACGAGTATTTGTATTTCAATGTC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTTCGCGGACAGGCCTTCACGAC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTTTTTGGCACGACTTGATGTGAGCC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTCAGACGGAGGGTCTGTTTAATGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTTAAAATAAGATTATGGCCGCGCTGATGC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAGTAAGCTTTTAAGTTTTCTCGGTGATCCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAGCGAGTTATTTCCGTGCGCGTTGGTGA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAAAAACTACATGCGATTCTTGGTGCGCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAttaaCTACCTATTTGCGCGGTACCACT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAGTCTCAAAGTGGTGGTGATGCGCTTCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATTTAGACTTCTTCTTCGCGCCCAA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAGGCACCTGAAATTTCCGTCATGCCGACC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTGGGACGCGCACGCCTCATGGATTC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTGGGAGCCTGCATTTATAAAGTGCTGACCC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTGGGAGGTGGTGTCCGAAAACCCGC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTGGGAAAGCTTGGGCCATTCCTGCT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTGGGATCCACATTGTTCGTGATCGCTTCGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTGGGATGGCTGCTGGACAATTCGGGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTGGGATGATCCTGCCGGTGAAGCGG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTGGGACGAAGCAAGCGCGTGTAGATGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTGGGACTGCGTGCAGGTCCCTGGTT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAGCGAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAttaaCTACCTATTTGCGCGGTACCACTTAATCAGTGAATCAGTGGAAGAATCTCCCGAGTCAACATCCTCTTCACCAGAGACAGCCGGAGCGAGGTCATTTGCCTGCTGTTTGCCCAGTTCAACACCCCATTGGTCGAAGGAGTTGATGTCCCAAATCACGCCCTGAACCATCACGATGTGTTCGTACAAAGCGATCAACGCACCGAGAATAGAAGGGGTAAGTTCCTCCGCCAAAATGGTGGTGGTTGGGCGATTACCTGGCATGACCTTGTGGTTGACCAGCTCAGGTGCGACACCTTCCGCAGCGATCTCTTCAGCGTTCTTACCGAAAGCCAAAACCTTGGTCTGTGCGAAGAAGTTGCTCATCAAAAGGTCATGCATGGTGCGCTCACCGGCAGGAAGATCCTGCTTTGGACGAGCGAAACCAATGAAATCAGCTGGAACAAGGCGAGTGCCCTGGTGGATCAGCTGGAAGAAAGCGTGCTGGCCATTTGTGCCAGGCTCACCCCAGTAAATTTCGCCAGTGCCAGTGGAAACAGGGGAGCCGTCGCGGTGGACTGACTTGCCATTTGATTCCATGGTCAGCTGCTGGAGGTAAGCAGCAAAACGGCTGAGATCCTCGGAATAAGGTAGGACAGCGTGGGTTTCTGCACCATAGAAATCGGAGTACCAGACACCGAGCAGAGCCATCAAGATTGGAACGTTCTCTTCGAACTTGGTGGTGCGGAAGTGTTCATCCATCGCGTGGAATCCACCGAGGAAACGCATGAAGTCGCGAGGGCCGATCACTGCCATGAGGGAAAGACCAACTGCGGAGTCCACGGAGTAACGACCTCCGACCCAGTCCCAGAAGCCGAACATGTTGTCCGTGTCGATACCGAACTCTGCGACCTTTTCAGCATTGGTGGACACTGCGACGAAGTGCTTCGCGACAGCCTCTTCACCGAGCTTCTCTACCAGCCAAGCACGAGCTGCACGAGCGTTGGACAGCGTCTCCTGGGTGGTGAAAGTTTTCGAAGCGATCACGAACAATGTGGAAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAGTCTCAAAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATTTAGACTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCCCCTGGCCAGTGCAC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTCGGTGTGTTAATCCGCCAGCTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCTCTTCCACATGAAGAGCAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCAATAAAGGCACGCGCAAAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCATCTTTTGAATTTTCGCTTGCAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCACACAATTAGGCGGTCGAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGACGCGCATTGGACCCTTCGAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGGTGAAACGTCTGCCTCCCAAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATCGGTGGAAGACTAAGAAGAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATTAGAATAACTGAAGAAGAAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCGGTTTTAGAGCTAGAAATAGCAAGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTAGGATCTTACCGCTGTTGAGATCCA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAATGAACAAGGTTGCTCAATATTACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAatgaaaaacatcaatccaacgcaga</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTTTACGGCTCAAACGGGCGTCT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTttaaccgcgccacgctttatagc</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaAGACTCTGGACC</t>
+    <t>CCAGGTCTCATCCTAAAGCCCTGCCCACCGGATG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTAAGCGCCCGGGCATGTACAT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTTCATCATCGGCGGCCACATGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTGGAATCACAGGCAGGGTGGGA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTAACCCAAACCCTGCCCGAAG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTGGCCCAATGTGGTCCCTCGG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTCAACAGCTCCTCCTGGGCCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTGCAGGACAATAGCGTTACCCTGGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTTTACCGGACACGCGCAACAC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCATGAACGAGTATTTGTATTTCAATGTC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGCGGACAGGCCTTCACGAC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTTTGGCACGACTTGATGTGAGCC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCAGACGGAGGGTCTGTTTAATGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTAAAATAAGATTATGGCCGCGCTGATGC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGTAAGCTTTTAAGTTTTCTCGGTGATCCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGCGAGTTATTTCCGTGCGCGTTGGTGA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAAACTACATGCGATTCTTGGTGCGCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAttaaCTACCTATTTGCGCGGTACCACT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGTCTCAAAGTGGTGGTGATGCGCTTCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATTTAGACTTCTTCTTCGCGCCCAA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGGCACCTGAAATTTCCGTCATGCCGACC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGGGACGCGCACGCCTCATGGATTC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGGGAGCCTGCATTTATAAAGTGCTGACCC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGGGAGGTGGTGTCCGAAAACCCGC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGGGAAAGCTTGGGCCATTCCTGCT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGGGATCCACATTGTTCGTGATCGCTTCGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGGGATGGCTGCTGGACAATTCGGGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGGGATGATCCTGCCGGTGAAGCGG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGGGACGAAGCAAGCGCGTGTAGATGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGGGACTGCGTGCAGGTCCCTGGTT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGCGAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAttaaCTACCTATTTGCGCGGTACCACTTAATCAGTGAATCAGTGGAAGAATCTCCCGAGTCAACATCCTCTTCACCAGAGACAGCCGGAGCGAGGTCATTTGCCTGCTGTTTGCCCAGTTCAACACCCCATTGGTCGAAGGAGTTGATGTCCCAAATCACGCCCTGAACCATCACGATGTGTTCGTACAAAGCGATCAACGCACCGAGAATAGAAGGGGTAAGTTCCTCCGCCAAAATGGTGGTGGTTGGGCGATTACCTGGCATGACCTTGTGGTTGACCAGCTCAGGTGCGACACCTTCCGCAGCGATCTCTTCAGCGTTCTTACCGAAAGCCAAAACCTTGGTCTGTGCGAAGAAGTTGCTCATCAAAAGGTCATGCATGGTGCGCTCACCGGCAGGAAGATCCTGCTTTGGACGAGCGAAACCAATGAAATCAGCTGGAACAAGGCGAGTGCCCTGGTGGATCAGCTGGAAGAAAGCGTGCTGGCCATTTGTGCCAGGCTCACCCCAGTAAATTTCGCCAGTGCCAGTGGAAACAGGGGAGCCGTCGCGGTGGACTGACTTGCCATTTGATTCCATGGTCAGCTGCTGGAGGTAAGCAGCAAAACGGCTGAGATCCTCGGAATAAGGTAGGACAGCGTGGGTTTCTGCACCATAGAAATCGGAGTACCAGACACCGAGCAGAGCCATCAAGATTGGAACGTTCTCTTCGAACTTGGTGGTGCGGAAGTGTTCATCCATCGCGTGGAATCCACCGAGGAAACGCATGAAGTCGCGAGGGCCGATCACTGCCATGAGGGAAAGACCAACTGCGGAGTCCACGGAGTAACGACCTCCGACCCAGTCCCAGAAGCCGAACATGTTGTCCGTGTCGATACCGAACTCTGCGACCTTTTCAGCATTGGTGGACACTGCGACGAAGTGCTTCGCGACAGCCTCTTCACCGAGCTTCTCTACCAGCCAAGCACGAGCTGCACGAGCGTTGGACAGCGTCTCCTGGGTGGTGAAAGTTTTCGAAGCGATCACGAACAATGTGGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGTCTCAAAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATTTAGACTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCCCCTGGCCAGTGCAC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGGTGTGTTAATCCGCCAGCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCTCTTCCACATGAAGAGCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCAATAAAGGCACGCGCAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCATCTTTTGAATTTTCGCTTGCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCACACAATTAGGCGGTCGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGACGCGCATTGGACCCTTCGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGGTGAAACGTCTGCCTCCCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATCGGTGGAAGACTAAGAAGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATTAGAATAACTGAAGAAGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCGGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAGGATCTTACCGCTGTTGAGATCCA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGAACAAGGTTGCTCAATATTACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAatgaaaaacatcaatccaacgcaga</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTACGGCTCAAACGGGCGTCT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTttaaccgcgccacgctttatagc</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaACTCTGGACC</t>
   </si>
   <si>
     <t>SEQUENCING_PRIMER_1</t>
@@ -918,7 +918,7 @@
         <v>33</v>
       </c>
       <c r="F2">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -938,7 +938,7 @@
         <v>34</v>
       </c>
       <c r="F3">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -958,7 +958,7 @@
         <v>35</v>
       </c>
       <c r="F4">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -978,7 +978,7 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -998,7 +998,7 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1018,7 +1018,7 @@
         <v>38</v>
       </c>
       <c r="F7">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1038,7 +1038,7 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1058,7 +1058,7 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1078,7 +1078,7 @@
         <v>41</v>
       </c>
       <c r="F10">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
@@ -1131,7 +1131,7 @@
         <v>60</v>
       </c>
       <c r="F2">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1151,7 +1151,7 @@
         <v>61</v>
       </c>
       <c r="F3">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1171,7 +1171,7 @@
         <v>62</v>
       </c>
       <c r="F4">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1191,7 +1191,7 @@
         <v>63</v>
       </c>
       <c r="F5">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1211,7 +1211,7 @@
         <v>64</v>
       </c>
       <c r="F6">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1231,7 +1231,7 @@
         <v>65</v>
       </c>
       <c r="F7">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1251,7 +1251,7 @@
         <v>66</v>
       </c>
       <c r="F8">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1271,7 +1271,7 @@
         <v>67</v>
       </c>
       <c r="F9">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1291,7 +1291,7 @@
         <v>68</v>
       </c>
       <c r="F10">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1344,7 @@
         <v>78</v>
       </c>
       <c r="F2">
-        <v>3889</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1364,7 +1364,7 @@
         <v>79</v>
       </c>
       <c r="F3">
-        <v>3889</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1384,7 +1384,7 @@
         <v>80</v>
       </c>
       <c r="F4">
-        <v>3889</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1404,7 +1404,7 @@
         <v>81</v>
       </c>
       <c r="F5">
-        <v>3889</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1424,7 +1424,7 @@
         <v>78</v>
       </c>
       <c r="F6">
-        <v>3889</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1444,7 +1444,7 @@
         <v>82</v>
       </c>
       <c r="F7">
-        <v>3889</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1464,7 +1464,7 @@
         <v>83</v>
       </c>
       <c r="F8">
-        <v>3889</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1484,7 +1484,7 @@
         <v>84</v>
       </c>
       <c r="F9">
-        <v>3889</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1504,7 +1504,7 @@
         <v>85</v>
       </c>
       <c r="F10">
-        <v>3889</v>
+        <v>3885</v>
       </c>
     </row>
   </sheetData>
@@ -1557,7 +1557,7 @@
         <v>88</v>
       </c>
       <c r="F2">
-        <v>7715</v>
+        <v>7711</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1610,7 @@
         <v>93</v>
       </c>
       <c r="F2">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1630,7 +1630,7 @@
         <v>94</v>
       </c>
       <c r="F3">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
   </sheetData>

--- a/output/only_primer/one_plasmid_design_result.xlsx
+++ b/output/only_primer/one_plasmid_design_result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="169">
   <si>
     <t>ID</t>
   </si>
@@ -67,244 +67,253 @@
     <t>Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875</t>
   </si>
   <si>
-    <t>CCAGGTCTCATCCTAAAGCCCTGCCCACCGGATG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTAAGCGCCCGGGCATGTACAT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTTCATCATCGGCGGCCACATGT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTGGAATCACAGGCAGGGTGGGA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTAACCCAAACCCTGCCCGAAG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTGGCCCAATGTGGTCCCTCGG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTCAACAGCTCCTCCTGGGCCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTGCAGGACAATAGCGTTACCCTGGT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTTTACCGGACACGCGCAACAC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCATGAACGAGTATTTGTATTTCAATGTC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCGCGGACAGGCCTTCACGAC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTTTTGGCACGACTTGATGTGAGCC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCAGACGGAGGGTCTGTTTAATGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTAAAATAAGATTATGGCCGCGCTGATGC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGTAAGCTTTTAAGTTTTCTCGGTGATCCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGCGAGTTATTTCCGTGCGCGTTGGTGA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAAAACTACATGCGATTCTTGGTGCGCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAttaaCTACCTATTTGCGCGGTACCACT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGTCTCAAAGTGGTGGTGATGCGCTTCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATTTAGACTTCTTCTTCGCGCCCAA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGGCACCTGAAATTTCCGTCATGCCGACC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGGGACGCGCACGCCTCATGGATTC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGGGAGCCTGCATTTATAAAGTGCTGACCC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGGGAGGTGGTGTCCGAAAACCCGC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGGGAAAGCTTGGGCCATTCCTGCT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGGGATCCACATTGTTCGTGATCGCTTCGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGGGATGGCTGCTGGACAATTCGGGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGGGATGATCCTGCCGGTGAAGCGG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGGGACGAAGCAAGCGCGTGTAGATGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGGGACTGCGTGCAGGTCCCTGGTT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGCGAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAttaaCTACCTATTTGCGCGGTACCACTTAATCAGTGAATCAGTGGAAGAATCTCCCGAGTCAACATCCTCTTCACCAGAGACAGCCGGAGCGAGGTCATTTGCCTGCTGTTTGCCCAGTTCAACACCCCATTGGTCGAAGGAGTTGATGTCCCAAATCACGCCCTGAACCATCACGATGTGTTCGTACAAAGCGATCAACGCACCGAGAATAGAAGGGGTAAGTTCCTCCGCCAAAATGGTGGTGGTTGGGCGATTACCTGGCATGACCTTGTGGTTGACCAGCTCAGGTGCGACACCTTCCGCAGCGATCTCTTCAGCGTTCTTACCGAAAGCCAAAACCTTGGTCTGTGCGAAGAAGTTGCTCATCAAAAGGTCATGCATGGTGCGCTCACCGGCAGGAAGATCCTGCTTTGGACGAGCGAAACCAATGAAATCAGCTGGAACAAGGCGAGTGCCCTGGTGGATCAGCTGGAAGAAAGCGTGCTGGCCATTTGTGCCAGGCTCACCCCAGTAAATTTCGCCAGTGCCAGTGGAAACAGGGGAGCCGTCGCGGTGGACTGACTTGCCATTTGATTCCATGGTCAGCTGCTGGAGGTAAGCAGCAAAACGGCTGAGATCCTCGGAATAAGGTAGGACAGCGTGGGTTTCTGCACCATAGAAATCGGAGTACCAGACACCGAGCAGAGCCATCAAGATTGGAACGTTCTCTTCGAACTTGGTGGTGCGGAAGTGTTCATCCATCGCGTGGAATCCACCGAGGAAACGCATGAAGTCGCGAGGGCCGATCACTGCCATGAGGGAAAGACCAACTGCGGAGTCCACGGAGTAACGACCTCCGACCCAGTCCCAGAAGCCGAACATGTTGTCCGTGTCGATACCGAACTCTGCGACCTTTTCAGCATTGGTGGACACTGCGACGAAGTGCTTCGCGACAGCCTCTTCACCGAGCTTCTCTACCAGCCAAGCACGAGCTGCACGAGCGTTGGACAGCGTCTCCTGGGTGGTGAAAGTTTTCGAAGCGATCACGAACAATGTGGAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGTCTCAAAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATTTAGACTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCCCCTGGCCAGTGCAC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCGGTGTGTTAATCCGCCAGCTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCTCTTCCACATGAAGAGCACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCAATAAAGGCACGCGCAAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCATCTTTTGAATTTTCGCTTGCACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCACACAATTAGGCGGTCGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGACGCGCATTGGACCCTTCGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGGTGAAACGTCTGCCTCCCAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATCGGTGGAAGACTAAGAAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATTAGAATAACTGAAGAAGAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCGGTTTTAGAGCTAGAAATAGCAAGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTAGGATCTTACCGCTGTTGAGATCCA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATGAACAAGGTTGCTCAATATTACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAatgaaaaacatcaatccaacgcaga</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTTACGGCTCAAACGGGCGTCT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTttaaccgcgccacgctttatagc</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaACTCTGGACC</t>
+    <t>CCAAGAAGACAATCCTAAAGCCCTGCCCACCGGATG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTAAGCGCCCGGGCATGTACAT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTTCATCATCGGCGGCCACATGT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTGGAATCACAGGCAGGGTGGGA</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTAACCCAAACCCTGCCCGAAG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTGGCCCAATGTGGTCCCTCGG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTCAACAGCTCCTCCTGGGCCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTGCAGGACAATAGCGTTACCCTGGT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTTTACCGGACACGCGCAACAC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTCGCGGACAGGCCTTCACGAC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTGGCACGACTTGATGTGAGCC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTCAGACGGAGGGTCTGTTTAATGA</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAGTAAGCTTTTAAGTTTTCTCGGTGATCCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAGCGAGTTATTTCCGTGCGCGTTGGTGA</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAACTACATGCGATTCTTGGTGCGCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAttaaCTACCTATTTGCGCGGTACCACT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAGTCTCAAAGTGGTGGTGATGCGCTTCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATTTAGACTTCTTCTTCGCGCCCAA</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAGGCACCTGAAATTTCCGTCATGCCGACC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTGGGACGCGCACGCCTCATGGATTC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTGGGAGCCTGCATTTATAAAGTGCTGACCC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTGGGAGGTGGTGTCCGAAAACCCGC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTGGGAAAGCTTGGGCCATTCCTGCT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTGGGATCCACATTGTTCGTGATCGCTTCGA</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTGGGATGGCTGCTGGACAATTCGGGA</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTGGGATGATCCTGCCGGTGAAGCGG</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTGGGACGAAGCAAGCGCGTGTAGATGA</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTGGGACTGCGTGCAGGTCCCTGGTT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAGCGAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAttaaCTACCTATTTGCGCGGTACCACTTAATCAGTGAATCAGTGGAAGAATCTCCCGAGTCAACATCCTCTTCACCAGAGACAGCCGGAGCGAGGTCATTTGCCTGCTGTTTGCCCAGTTCAACACCCCATTGGTCGAAGGAGTTGATGTCCCAAATCACGCCCTGAACCATCACGATGTGTTCGTACAAAGCGATCAACGCACCGAGAATAGAAGGGGTAAGTTCCTCCGCCAAAATGGTGGTGGTTGGGCGATTACCTGGCATGACCTTGTGGTTGACCAGCTCAGGTGCGACACCTTCCGCAGCGATCTCTTCAGCGTTCTTACCGAAAGCCAAAACCTTGGTCTGTGCGAAGAAGTTGCTCATCAAAAGGTCATGCATGGTGCGCTCACCGGCAGGAAGATCCTGCTTTGGACGAGCGAAACCAATGAAATCAGCTGGAACAAGGCGAGTGCCCTGGTGGATCAGCTGGAAGAAAGCGTGCTGGCCATTTGTGCCAGGCTCACCCCAGTAAATTTCGCCAGTGCCAGTGGAAACAGGGGAGCCGTCGCGGTGGACTGACTTGCCATTTGATTCCATGGTCAGCTGCTGGAGGTAAGCAGCAAAACGGCTGAGATCCTCGGAATAAGGTAGGACAGCGTGGGTTTCTGCACCATAGAAATCGGAGTACCAGACACCGAGCAGAGCCATCAAGATTGGAACGTTCTCTTCGAACTTGGTGGTGCGGAAGTGTTCATCCATCGCGTGGAATCCACCGAGGAAACGCATGAAGTCGCGAGGGCCGATCACTGCCATGAGGGAAAGACCAACTGCGGAGTCCACGGAGTAACGACCTCCGACCCAGTCCCAGAAGCCGAACATGTTGTCCGTGTCGATACCGAACTCTGCGACCTTTTCAGCATTGGTGGACACTGCGACGAAGTGCTTCGCGACAGCCTCTTCACCGAGCTTCTCTACCAGCCAAGCACGAGCTGCACGAGCGTTGGACAGCGTCTCCTGGGTGGTGAAAGTTTTCGAAGCGATCACGAACAATGTGGAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAGTCTCAAAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATTTAGACTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCCCCTGGCCAGTGCAC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTCGGTGTGTTAATCCGCCAGCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCTCTTCCACATGAAGAGCAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCAATAAAGGCACGCGCAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCATCTTTTGAATTTTCGCTTGCAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCACACAATTAGGCGGTCGAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGACGCGCATTGGACCCTTCGAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGGTGAAACGTCTGCCTCCCAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATCGGTGGAAGACTAAGAAGAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATTAGAATAACTGAAGAAGAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAATATCATGAACTTCTTCAAAACAG</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTATTAGAGTAAAAGAAATATTTTGCGGT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTAGGATCTTACCGCTGTTGAGATCCA</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGCAAAATATTTCTTTTACTCTAATAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAATGAACAAGGTTGCTCAATATTACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAatgaaaaacatcaatccaacgcaga</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTACGGCTCAAACGGGCGTCT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTttaaccgcgccacgctttatagc</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaAACAGAAGAACC</t>
   </si>
   <si>
     <t>SEQUENCING_PRIMER_1</t>
@@ -918,7 +927,7 @@
         <v>33</v>
       </c>
       <c r="F2">
-        <v>1062</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -938,7 +947,7 @@
         <v>34</v>
       </c>
       <c r="F3">
-        <v>1051</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -958,7 +967,7 @@
         <v>35</v>
       </c>
       <c r="F4">
-        <v>1059</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -978,7 +987,7 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>1106</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -998,7 +1007,7 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <v>1064</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1018,7 +1027,7 @@
         <v>38</v>
       </c>
       <c r="F7">
-        <v>1058</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1038,7 +1047,7 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>1047</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1058,7 +1067,7 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>1051</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1078,7 +1087,7 @@
         <v>41</v>
       </c>
       <c r="F10">
-        <v>1047</v>
+        <v>1051</v>
       </c>
     </row>
   </sheetData>
@@ -1131,7 +1140,7 @@
         <v>60</v>
       </c>
       <c r="F2">
-        <v>1061</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1151,7 +1160,7 @@
         <v>61</v>
       </c>
       <c r="F3">
-        <v>1063</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1171,7 +1180,7 @@
         <v>62</v>
       </c>
       <c r="F4">
-        <v>1048</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1191,7 +1200,7 @@
         <v>63</v>
       </c>
       <c r="F5">
-        <v>1076</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1211,7 +1220,7 @@
         <v>64</v>
       </c>
       <c r="F6">
-        <v>1059</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1231,7 +1240,7 @@
         <v>65</v>
       </c>
       <c r="F7">
-        <v>1064</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1251,7 +1260,7 @@
         <v>66</v>
       </c>
       <c r="F8">
-        <v>1053</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1271,7 +1280,7 @@
         <v>67</v>
       </c>
       <c r="F9">
-        <v>1049</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1291,7 +1300,7 @@
         <v>68</v>
       </c>
       <c r="F10">
-        <v>1047</v>
+        <v>1051</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1353,7 @@
         <v>78</v>
       </c>
       <c r="F2">
-        <v>3885</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1364,7 +1373,7 @@
         <v>79</v>
       </c>
       <c r="F3">
-        <v>3885</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1384,7 +1393,7 @@
         <v>80</v>
       </c>
       <c r="F4">
-        <v>3885</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1404,7 +1413,7 @@
         <v>81</v>
       </c>
       <c r="F5">
-        <v>3885</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1424,7 +1433,7 @@
         <v>78</v>
       </c>
       <c r="F6">
-        <v>3885</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1444,7 +1453,7 @@
         <v>82</v>
       </c>
       <c r="F7">
-        <v>3885</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1464,7 +1473,7 @@
         <v>83</v>
       </c>
       <c r="F8">
-        <v>3885</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1484,7 +1493,7 @@
         <v>84</v>
       </c>
       <c r="F9">
-        <v>3885</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1504,7 +1513,7 @@
         <v>85</v>
       </c>
       <c r="F10">
-        <v>3885</v>
+        <v>3889</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1523,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1551,13 +1560,33 @@
         <v>86</v>
       </c>
       <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>87</v>
       </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2">
-        <v>7711</v>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3">
+        <v>1938</v>
       </c>
     </row>
   </sheetData>
@@ -1601,16 +1630,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F2">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1621,16 +1650,16 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F3">
-        <v>1670</v>
+        <v>1674</v>
       </c>
     </row>
   </sheetData>
@@ -1654,76 +1683,76 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -1734,61 +1763,61 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D2">
         <v>61.16590711741475</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F2">
         <v>64.65471339725246</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H2">
         <v>61.21822976233301</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J2">
         <v>65.74288342382255</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L2">
         <v>64.14461467256081</v>
       </c>
       <c r="Q2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R2">
         <v>64.8362495055091</v>
       </c>
       <c r="S2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="T2">
         <v>64.70870125962665</v>
       </c>
       <c r="U2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="V2">
         <v>59.7609178431743</v>
       </c>
       <c r="W2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="X2">
         <v>59.64659960774634</v>
       </c>
       <c r="Y2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z2">
         <v>62.13130210482524</v>
@@ -1802,55 +1831,55 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D3">
         <v>61.16590711741475</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F3">
         <v>64.65471339725246</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H3">
         <v>64.74457393037193</v>
       </c>
       <c r="I3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J3">
         <v>64.78597081263268</v>
       </c>
       <c r="Q3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R3">
         <v>64.8362495055091</v>
       </c>
       <c r="S3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="T3">
         <v>64.70870125962665</v>
       </c>
       <c r="U3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="V3">
         <v>59.7609178431743</v>
       </c>
       <c r="W3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="X3">
         <v>59.64659960774634</v>
       </c>
       <c r="Y3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z3">
         <v>62.13130210482524</v>
@@ -1864,55 +1893,55 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D4">
         <v>61.16590711741475</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F4">
         <v>64.65471339725246</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H4">
         <v>65.02608910662099</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J4">
         <v>61.74033218325854</v>
       </c>
       <c r="Q4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R4">
         <v>64.8362495055091</v>
       </c>
       <c r="S4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="T4">
         <v>64.70870125962665</v>
       </c>
       <c r="U4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="V4">
         <v>59.7609178431743</v>
       </c>
       <c r="W4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="X4">
         <v>59.64659960774634</v>
       </c>
       <c r="Y4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z4">
         <v>62.13130210482524</v>
@@ -1926,55 +1955,55 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D5">
         <v>61.16590711741475</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F5">
         <v>64.65471339725246</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H5">
         <v>64.92337028205594</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J5">
         <v>65.12396206685594</v>
       </c>
       <c r="Q5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R5">
         <v>64.8362495055091</v>
       </c>
       <c r="S5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="T5">
         <v>64.70870125962665</v>
       </c>
       <c r="U5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="V5">
         <v>59.7609178431743</v>
       </c>
       <c r="W5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="X5">
         <v>59.64659960774634</v>
       </c>
       <c r="Y5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z5">
         <v>62.13130210482524</v>
@@ -1988,73 +2017,73 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D6">
         <v>61.16590711741475</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F6">
         <v>64.65471339725246</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H6">
         <v>64.8415874819122</v>
       </c>
       <c r="I6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J6">
         <v>58.37889325194539</v>
       </c>
       <c r="K6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L6">
         <v>65.41545464621163</v>
       </c>
       <c r="M6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N6">
         <v>64.1140872132674</v>
       </c>
       <c r="O6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P6">
         <v>62.75885207959993</v>
       </c>
       <c r="Q6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R6">
         <v>64.8362495055091</v>
       </c>
       <c r="S6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="T6">
         <v>64.70870125962665</v>
       </c>
       <c r="U6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="V6">
         <v>59.7609178431743</v>
       </c>
       <c r="W6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="X6">
         <v>59.64659960774634</v>
       </c>
       <c r="Y6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z6">
         <v>62.13130210482524</v>
@@ -2068,55 +2097,55 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D7">
         <v>61.16590711741475</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F7">
         <v>64.65471339725246</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H7">
         <v>64.44375164616912</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J7">
         <v>64.89768659828428</v>
       </c>
       <c r="Q7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R7">
         <v>64.8362495055091</v>
       </c>
       <c r="S7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="T7">
         <v>64.70870125962665</v>
       </c>
       <c r="U7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="V7">
         <v>59.7609178431743</v>
       </c>
       <c r="W7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="X7">
         <v>59.64659960774634</v>
       </c>
       <c r="Y7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z7">
         <v>62.13130210482524</v>
@@ -2130,55 +2159,55 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D8">
         <v>61.16590711741475</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F8">
         <v>64.65471339725246</v>
       </c>
       <c r="G8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H8">
         <v>65.40702009302714</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J8">
         <v>58.31605672573471</v>
       </c>
       <c r="Q8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R8">
         <v>64.8362495055091</v>
       </c>
       <c r="S8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="T8">
         <v>64.70870125962665</v>
       </c>
       <c r="U8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="V8">
         <v>59.7609178431743</v>
       </c>
       <c r="W8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="X8">
         <v>59.64659960774634</v>
       </c>
       <c r="Y8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z8">
         <v>62.13130210482524</v>
@@ -2192,55 +2221,55 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D9">
         <v>61.16590711741475</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F9">
         <v>64.65471339725246</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H9">
         <v>59.06550446538768</v>
       </c>
       <c r="I9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J9">
         <v>64.75610972804407</v>
       </c>
       <c r="Q9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R9">
         <v>64.8362495055091</v>
       </c>
       <c r="S9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="T9">
         <v>64.70870125962665</v>
       </c>
       <c r="U9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="V9">
         <v>59.7609178431743</v>
       </c>
       <c r="W9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="X9">
         <v>59.64659960774634</v>
       </c>
       <c r="Y9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z9">
         <v>62.13130210482524</v>
@@ -2254,55 +2283,55 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D10">
         <v>61.16590711741475</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F10">
         <v>64.65471339725246</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H10">
         <v>61.48881682687846</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J10">
         <v>64.35166066214509</v>
       </c>
       <c r="Q10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R10">
         <v>64.8362495055091</v>
       </c>
       <c r="S10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="T10">
         <v>64.70870125962665</v>
       </c>
       <c r="U10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="V10">
         <v>59.7609178431743</v>
       </c>
       <c r="W10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="X10">
         <v>59.64659960774634</v>
       </c>
       <c r="Y10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z10">
         <v>62.13130210482524</v>
@@ -2329,46 +2358,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2379,25 +2408,25 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D2">
         <v>57.3651846291707</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F2">
         <v>64.92306747221159</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H2">
         <v>64.74457393037193</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J2">
         <v>64.78597081263268</v>
@@ -2411,25 +2440,25 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D3">
         <v>63.3812861436196</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F3">
         <v>60.88051506593223</v>
       </c>
       <c r="G3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H3">
         <v>65.40702009302714</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J3">
         <v>58.31605672573471</v>
@@ -2443,25 +2472,25 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D4">
         <v>62.93038493198372</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F4">
         <v>65.14584171422513</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H4">
         <v>61.48881682687846</v>
       </c>
       <c r="I4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J4">
         <v>64.35166066214509</v>
@@ -2475,25 +2504,25 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D5">
         <v>60.09312810356755</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F5">
         <v>65.75879292443648</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H5">
         <v>59.06550446538768</v>
       </c>
       <c r="I5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J5">
         <v>64.75610972804407</v>
@@ -2507,25 +2536,25 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D6">
         <v>64.02088887225722</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F6">
         <v>64.31358443072048</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H6">
         <v>64.44375164616912</v>
       </c>
       <c r="I6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J6">
         <v>64.89768659828428</v>
@@ -2539,25 +2568,25 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D7">
         <v>60.8847039890224</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F7">
         <v>64.14139165447284</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H7">
         <v>64.92337028205594</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J7">
         <v>65.12396206685594</v>
@@ -2571,25 +2600,25 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D8">
         <v>61.89943671198756</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F8">
         <v>64.77108646591313</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H8">
         <v>65.02608910662099</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J8">
         <v>61.74033218325854</v>
@@ -2603,31 +2632,31 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D9">
         <v>64.72672371259466</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F9">
         <v>65.71824808498394</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H9">
         <v>61.21822976233301</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J9">
         <v>65.74288342382255</v>
       </c>
       <c r="K9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L9">
         <v>64.14461467256081</v>
@@ -2641,43 +2670,43 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D10">
         <v>61.7720628213965</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F10">
         <v>64.06944111481556</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H10">
         <v>64.8415874819122</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J10">
         <v>58.37889325194539</v>
       </c>
       <c r="K10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L10">
         <v>65.41545464621163</v>
       </c>
       <c r="M10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N10">
         <v>64.1140872132674</v>
       </c>
       <c r="O10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P10">
         <v>62.75885207959993</v>

--- a/output/only_primer/one_plasmid_design_result.xlsx
+++ b/output/only_primer/one_plasmid_design_result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="166">
   <si>
     <t>ID</t>
   </si>
@@ -67,253 +67,244 @@
     <t>Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875</t>
   </si>
   <si>
-    <t>CCAAGAAGACAATCCTAAAGCCCTGCCCACCGGATG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTAAGCGCCCGGGCATGTACAT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTTCATCATCGGCGGCCACATGT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTGGAATCACAGGCAGGGTGGGA</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTAACCCAAACCCTGCCCGAAG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTGGCCCAATGTGGTCCCTCGG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTCAACAGCTCCTCCTGGGCCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTGCAGGACAATAGCGTTACCCTGGT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTTTACCGGACACGCGCAACAC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTCGCGGACAGGCCTTCACGAC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTGGCACGACTTGATGTGAGCC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTCAGACGGAGGGTCTGTTTAATGA</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAGTAAGCTTTTAAGTTTTCTCGGTGATCCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAGCGAGTTATTTCCGTGCGCGTTGGTGA</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAACTACATGCGATTCTTGGTGCGCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAttaaCTACCTATTTGCGCGGTACCACT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAGTCTCAAAGTGGTGGTGATGCGCTTCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATTTAGACTTCTTCTTCGCGCCCAA</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAGGCACCTGAAATTTCCGTCATGCCGACC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTGGGACGCGCACGCCTCATGGATTC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTGGGAGCCTGCATTTATAAAGTGCTGACCC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTGGGAGGTGGTGTCCGAAAACCCGC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTGGGAAAGCTTGGGCCATTCCTGCT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTGGGATCCACATTGTTCGTGATCGCTTCGA</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTGGGATGGCTGCTGGACAATTCGGGA</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTGGGATGATCCTGCCGGTGAAGCGG</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTGGGACGAAGCAAGCGCGTGTAGATGA</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTGGGACTGCGTGCAGGTCCCTGGTT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAGCGAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAttaaCTACCTATTTGCGCGGTACCACTTAATCAGTGAATCAGTGGAAGAATCTCCCGAGTCAACATCCTCTTCACCAGAGACAGCCGGAGCGAGGTCATTTGCCTGCTGTTTGCCCAGTTCAACACCCCATTGGTCGAAGGAGTTGATGTCCCAAATCACGCCCTGAACCATCACGATGTGTTCGTACAAAGCGATCAACGCACCGAGAATAGAAGGGGTAAGTTCCTCCGCCAAAATGGTGGTGGTTGGGCGATTACCTGGCATGACCTTGTGGTTGACCAGCTCAGGTGCGACACCTTCCGCAGCGATCTCTTCAGCGTTCTTACCGAAAGCCAAAACCTTGGTCTGTGCGAAGAAGTTGCTCATCAAAAGGTCATGCATGGTGCGCTCACCGGCAGGAAGATCCTGCTTTGGACGAGCGAAACCAATGAAATCAGCTGGAACAAGGCGAGTGCCCTGGTGGATCAGCTGGAAGAAAGCGTGCTGGCCATTTGTGCCAGGCTCACCCCAGTAAATTTCGCCAGTGCCAGTGGAAACAGGGGAGCCGTCGCGGTGGACTGACTTGCCATTTGATTCCATGGTCAGCTGCTGGAGGTAAGCAGCAAAACGGCTGAGATCCTCGGAATAAGGTAGGACAGCGTGGGTTTCTGCACCATAGAAATCGGAGTACCAGACACCGAGCAGAGCCATCAAGATTGGAACGTTCTCTTCGAACTTGGTGGTGCGGAAGTGTTCATCCATCGCGTGGAATCCACCGAGGAAACGCATGAAGTCGCGAGGGCCGATCACTGCCATGAGGGAAAGACCAACTGCGGAGTCCACGGAGTAACGACCTCCGACCCAGTCCCAGAAGCCGAACATGTTGTCCGTGTCGATACCGAACTCTGCGACCTTTTCAGCATTGGTGGACACTGCGACGAAGTGCTTCGCGACAGCCTCTTCACCGAGCTTCTCTACCAGCCAAGCACGAGCTGCACGAGCGTTGGACAGCGTCTCCTGGGTGGTGAAAGTTTTCGAAGCGATCACGAACAATGTGGAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAGTCTCAAAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATTTAGACTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCCCCTGGCCAGTGCAC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTCGGTGTGTTAATCCGCCAGCTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCTCTTCCACATGAAGAGCAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCAATAAAGGCACGCGCAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCATCTTTTGAATTTTCGCTTGCAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCACACAATTAGGCGGTCGAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGACGCGCATTGGACCCTTCGAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGGTGAAACGTCTGCCTCCCAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATCGGTGGAAGACTAAGAAGAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATTAGAATAACTGAAGAAGAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAGTTTTAGAGCTAGAAATAGCAAGT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAATATCATGAACTTCTTCAAAACAG</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTATTAGAGTAAAAGAAATATTTTGCGGT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTAGGATCTTACCGCTGTTGAGATCCA</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGCAAAATATTTCTTTTACTCTAATAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAATGAACAAGGTTGCTCAATATTACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAatgaaaaacatcaatccaacgcaga</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTACGGCTCAAACGGGCGTCT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTttaaccgcgccacgctttatagc</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaAACAGAAGAACC</t>
+    <t>CCAAGAAGACAAAAAAATCCTAAAGCCCTGCCCACCGGATG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTAAGCGCCCGGGCATGTACAT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTTCATCATCGGCGGCCACATGT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTGGAATCACAGGCAGGGTGGGA</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTAACCCAAACCCTGCCCGAAG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTGGCCCAATGTGGTCCCTCGG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTCAACAGCTCCTCCTGGGCCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTGCAGGACAATAGCGTTACCCTGGT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTTTACCGGACACGCGCAACAC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTTCGCGGACAGGCCTTCACGAC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTTTTTGGCACGACTTGATGTGAGCC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTCAGACGGAGGGTCTGTTTAATGA</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAGTAAGCTTTTAAGTTTTCTCGGTGATCCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAGCGAGTTATTTCCGTGCGCGTTGGTGA</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAAAAACTACATGCGATTCTTGGTGCGCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAttaaCTACCTATTTGCGCGGTACCACT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAGTCTCAAAGTGGTGGTGATGCGCTTCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATTTAGACTTCTTCTTCGCGCCCAA</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAGGCACCTGAAATTTCCGTCATGCCGACC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTGGGACGCGCACGCCTCATGGATTC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTGGGAGCCTGCATTTATAAAGTGCTGACCC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTGGGAGGTGGTGTCCGAAAACCCGC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTGGGAAAGCTTGGGCCATTCCTGCT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTGGGATCCACATTGTTCGTGATCGCTTCGA</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTGGGATGGCTGCTGGACAATTCGGGA</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTGGGATGATCCTGCCGGTGAAGCGG</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTGGGACGAAGCAAGCGCGTGTAGATGA</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTGGGACTGCGTGCAGGTCCCTGGTT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAGCGAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAttaaCTACCTATTTGCGCGGTACCACTTAATCAGTGAATCAGTGGAAGAATCTCCCGAGTCAACATCCTCTTCACCAGAGACAGCCGGAGCGAGGTCATTTGCCTGCTGTTTGCCCAGTTCAACACCCCATTGGTCGAAGGAGTTGATGTCCCAAATCACGCCCTGAACCATCACGATGTGTTCGTACAAAGCGATCAACGCACCGAGAATAGAAGGGGTAAGTTCCTCCGCCAAAATGGTGGTGGTTGGGCGATTACCTGGCATGACCTTGTGGTTGACCAGCTCAGGTGCGACACCTTCCGCAGCGATCTCTTCAGCGTTCTTACCGAAAGCCAAAACCTTGGTCTGTGCGAAGAAGTTGCTCATCAAAAGGTCATGCATGGTGCGCTCACCGGCAGGAAGATCCTGCTTTGGACGAGCGAAACCAATGAAATCAGCTGGAACAAGGCGAGTGCCCTGGTGGATCAGCTGGAAGAAAGCGTGCTGGCCATTTGTGCCAGGCTCACCCCAGTAAATTTCGCCAGTGCCAGTGGAAACAGGGGAGCCGTCGCGGTGGACTGACTTGCCATTTGATTCCATGGTCAGCTGCTGGAGGTAAGCAGCAAAACGGCTGAGATCCTCGGAATAAGGTAGGACAGCGTGGGTTTCTGCACCATAGAAATCGGAGTACCAGACACCGAGCAGAGCCATCAAGATTGGAACGTTCTCTTCGAACTTGGTGGTGCGGAAGTGTTCATCCATCGCGTGGAATCCACCGAGGAAACGCATGAAGTCGCGAGGGCCGATCACTGCCATGAGGGAAAGACCAACTGCGGAGTCCACGGAGTAACGACCTCCGACCCAGTCCCAGAAGCCGAACATGTTGTCCGTGTCGATACCGAACTCTGCGACCTTTTCAGCATTGGTGGACACTGCGACGAAGTGCTTCGCGACAGCCTCTTCACCGAGCTTCTCTACCAGCCAAGCACGAGCTGCACGAGCGTTGGACAGCGTCTCCTGGGTGGTGAAAGTTTTCGAAGCGATCACGAACAATGTGGAAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAGTCTCAAAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATTTAGACTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCCCCTGGCCAGTGCAC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTCGGTGTGTTAATCCGCCAGCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCTCTTCCACATGAAGAGCAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCAATAAAGGCACGCGCAAAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCATCTTTTGAATTTTCGCTTGCAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCACACAATTAGGCGGTCGAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGACGCGCATTGGACCCTTCGAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGGTGAAACGTCTGCCTCCCAAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATCGGTGGAAGACTAAGAAGAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATTAGAATAACTGAAGAAGAAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCGGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTAGGATCTTACCGCTGTTGAGATCCA</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAATGAACAAGGTTGCTCAATATTACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAatgaaaaacatcaatccaacgcaga</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTTTACGGCTCAAACGGGCGTCT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTttaaccgcgccacgctttatagc</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaAAAAAAACAGAAGAACC</t>
   </si>
   <si>
     <t>SEQUENCING_PRIMER_1</t>
@@ -927,7 +918,7 @@
         <v>33</v>
       </c>
       <c r="F2">
-        <v>1066</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -947,7 +938,7 @@
         <v>34</v>
       </c>
       <c r="F3">
-        <v>1055</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -967,7 +958,7 @@
         <v>35</v>
       </c>
       <c r="F4">
-        <v>1063</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -987,7 +978,7 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>1110</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1007,7 +998,7 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <v>1068</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1027,7 +1018,7 @@
         <v>38</v>
       </c>
       <c r="F7">
-        <v>1062</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1047,7 +1038,7 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>1051</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1067,7 +1058,7 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>1055</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1087,7 +1078,7 @@
         <v>41</v>
       </c>
       <c r="F10">
-        <v>1051</v>
+        <v>1061</v>
       </c>
     </row>
   </sheetData>
@@ -1140,7 +1131,7 @@
         <v>60</v>
       </c>
       <c r="F2">
-        <v>1065</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1160,7 +1151,7 @@
         <v>61</v>
       </c>
       <c r="F3">
-        <v>1067</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1180,7 +1171,7 @@
         <v>62</v>
       </c>
       <c r="F4">
-        <v>1052</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1200,7 +1191,7 @@
         <v>63</v>
       </c>
       <c r="F5">
-        <v>1080</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1220,7 +1211,7 @@
         <v>64</v>
       </c>
       <c r="F6">
-        <v>1063</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1240,7 +1231,7 @@
         <v>65</v>
       </c>
       <c r="F7">
-        <v>1068</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1260,7 +1251,7 @@
         <v>66</v>
       </c>
       <c r="F8">
-        <v>1057</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1280,7 +1271,7 @@
         <v>67</v>
       </c>
       <c r="F9">
-        <v>1053</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1300,7 +1291,7 @@
         <v>68</v>
       </c>
       <c r="F10">
-        <v>1051</v>
+        <v>1061</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1344,7 @@
         <v>78</v>
       </c>
       <c r="F2">
-        <v>3889</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1373,7 +1364,7 @@
         <v>79</v>
       </c>
       <c r="F3">
-        <v>3889</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1393,7 +1384,7 @@
         <v>80</v>
       </c>
       <c r="F4">
-        <v>3889</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1413,7 +1404,7 @@
         <v>81</v>
       </c>
       <c r="F5">
-        <v>3889</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1433,7 +1424,7 @@
         <v>78</v>
       </c>
       <c r="F6">
-        <v>3889</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1453,7 +1444,7 @@
         <v>82</v>
       </c>
       <c r="F7">
-        <v>3889</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1473,7 +1464,7 @@
         <v>83</v>
       </c>
       <c r="F8">
-        <v>3889</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1493,7 +1484,7 @@
         <v>84</v>
       </c>
       <c r="F9">
-        <v>3889</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1513,7 +1504,7 @@
         <v>85</v>
       </c>
       <c r="F10">
-        <v>3889</v>
+        <v>3899</v>
       </c>
     </row>
   </sheetData>
@@ -1523,7 +1514,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1560,33 +1551,13 @@
         <v>86</v>
       </c>
       <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
         <v>88</v>
       </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
       <c r="F2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3">
-        <v>1938</v>
+        <v>7725</v>
       </c>
     </row>
   </sheetData>
@@ -1630,16 +1601,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F2">
-        <v>507</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1650,16 +1621,16 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F3">
-        <v>1674</v>
+        <v>1684</v>
       </c>
     </row>
   </sheetData>
@@ -1683,76 +1654,76 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -1763,61 +1734,61 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D2">
         <v>61.16590711741475</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F2">
         <v>64.65471339725246</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H2">
         <v>61.21822976233301</v>
       </c>
       <c r="I2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J2">
         <v>65.74288342382255</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L2">
         <v>64.14461467256081</v>
       </c>
       <c r="Q2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R2">
         <v>64.8362495055091</v>
       </c>
       <c r="S2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T2">
         <v>64.70870125962665</v>
       </c>
       <c r="U2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="V2">
         <v>59.7609178431743</v>
       </c>
       <c r="W2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X2">
         <v>59.64659960774634</v>
       </c>
       <c r="Y2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Z2">
         <v>62.13130210482524</v>
@@ -1831,55 +1802,55 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D3">
         <v>61.16590711741475</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F3">
         <v>64.65471339725246</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H3">
         <v>64.74457393037193</v>
       </c>
       <c r="I3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J3">
         <v>64.78597081263268</v>
       </c>
       <c r="Q3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R3">
         <v>64.8362495055091</v>
       </c>
       <c r="S3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T3">
         <v>64.70870125962665</v>
       </c>
       <c r="U3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="V3">
         <v>59.7609178431743</v>
       </c>
       <c r="W3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X3">
         <v>59.64659960774634</v>
       </c>
       <c r="Y3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Z3">
         <v>62.13130210482524</v>
@@ -1893,55 +1864,55 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4">
         <v>61.16590711741475</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4">
         <v>64.65471339725246</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H4">
         <v>65.02608910662099</v>
       </c>
       <c r="I4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J4">
         <v>61.74033218325854</v>
       </c>
       <c r="Q4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R4">
         <v>64.8362495055091</v>
       </c>
       <c r="S4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T4">
         <v>64.70870125962665</v>
       </c>
       <c r="U4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="V4">
         <v>59.7609178431743</v>
       </c>
       <c r="W4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X4">
         <v>59.64659960774634</v>
       </c>
       <c r="Y4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Z4">
         <v>62.13130210482524</v>
@@ -1955,55 +1926,55 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D5">
         <v>61.16590711741475</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F5">
         <v>64.65471339725246</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H5">
         <v>64.92337028205594</v>
       </c>
       <c r="I5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J5">
         <v>65.12396206685594</v>
       </c>
       <c r="Q5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R5">
         <v>64.8362495055091</v>
       </c>
       <c r="S5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T5">
         <v>64.70870125962665</v>
       </c>
       <c r="U5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="V5">
         <v>59.7609178431743</v>
       </c>
       <c r="W5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X5">
         <v>59.64659960774634</v>
       </c>
       <c r="Y5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Z5">
         <v>62.13130210482524</v>
@@ -2017,73 +1988,73 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D6">
         <v>61.16590711741475</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F6">
         <v>64.65471339725246</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H6">
         <v>64.8415874819122</v>
       </c>
       <c r="I6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J6">
         <v>58.37889325194539</v>
       </c>
       <c r="K6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L6">
         <v>65.41545464621163</v>
       </c>
       <c r="M6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N6">
         <v>64.1140872132674</v>
       </c>
       <c r="O6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P6">
         <v>62.75885207959993</v>
       </c>
       <c r="Q6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R6">
         <v>64.8362495055091</v>
       </c>
       <c r="S6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T6">
         <v>64.70870125962665</v>
       </c>
       <c r="U6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="V6">
         <v>59.7609178431743</v>
       </c>
       <c r="W6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X6">
         <v>59.64659960774634</v>
       </c>
       <c r="Y6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Z6">
         <v>62.13130210482524</v>
@@ -2097,55 +2068,55 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D7">
         <v>61.16590711741475</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F7">
         <v>64.65471339725246</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H7">
         <v>64.44375164616912</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J7">
         <v>64.89768659828428</v>
       </c>
       <c r="Q7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R7">
         <v>64.8362495055091</v>
       </c>
       <c r="S7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T7">
         <v>64.70870125962665</v>
       </c>
       <c r="U7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="V7">
         <v>59.7609178431743</v>
       </c>
       <c r="W7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X7">
         <v>59.64659960774634</v>
       </c>
       <c r="Y7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Z7">
         <v>62.13130210482524</v>
@@ -2159,55 +2130,55 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D8">
         <v>61.16590711741475</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F8">
         <v>64.65471339725246</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H8">
         <v>65.40702009302714</v>
       </c>
       <c r="I8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J8">
         <v>58.31605672573471</v>
       </c>
       <c r="Q8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R8">
         <v>64.8362495055091</v>
       </c>
       <c r="S8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T8">
         <v>64.70870125962665</v>
       </c>
       <c r="U8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="V8">
         <v>59.7609178431743</v>
       </c>
       <c r="W8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X8">
         <v>59.64659960774634</v>
       </c>
       <c r="Y8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Z8">
         <v>62.13130210482524</v>
@@ -2221,55 +2192,55 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D9">
         <v>61.16590711741475</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F9">
         <v>64.65471339725246</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H9">
         <v>59.06550446538768</v>
       </c>
       <c r="I9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J9">
         <v>64.75610972804407</v>
       </c>
       <c r="Q9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R9">
         <v>64.8362495055091</v>
       </c>
       <c r="S9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T9">
         <v>64.70870125962665</v>
       </c>
       <c r="U9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="V9">
         <v>59.7609178431743</v>
       </c>
       <c r="W9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X9">
         <v>59.64659960774634</v>
       </c>
       <c r="Y9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Z9">
         <v>62.13130210482524</v>
@@ -2283,55 +2254,55 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D10">
         <v>61.16590711741475</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F10">
         <v>64.65471339725246</v>
       </c>
       <c r="G10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H10">
         <v>61.48881682687846</v>
       </c>
       <c r="I10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J10">
         <v>64.35166066214509</v>
       </c>
       <c r="Q10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R10">
         <v>64.8362495055091</v>
       </c>
       <c r="S10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T10">
         <v>64.70870125962665</v>
       </c>
       <c r="U10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="V10">
         <v>59.7609178431743</v>
       </c>
       <c r="W10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X10">
         <v>59.64659960774634</v>
       </c>
       <c r="Y10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Z10">
         <v>62.13130210482524</v>
@@ -2358,46 +2329,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2408,25 +2379,25 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D2">
         <v>57.3651846291707</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F2">
         <v>64.92306747221159</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H2">
         <v>64.74457393037193</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J2">
         <v>64.78597081263268</v>
@@ -2440,25 +2411,25 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D3">
         <v>63.3812861436196</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F3">
         <v>60.88051506593223</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H3">
         <v>65.40702009302714</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J3">
         <v>58.31605672573471</v>
@@ -2472,25 +2443,25 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D4">
         <v>62.93038493198372</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F4">
         <v>65.14584171422513</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H4">
         <v>61.48881682687846</v>
       </c>
       <c r="I4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J4">
         <v>64.35166066214509</v>
@@ -2504,25 +2475,25 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D5">
         <v>60.09312810356755</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F5">
         <v>65.75879292443648</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H5">
         <v>59.06550446538768</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J5">
         <v>64.75610972804407</v>
@@ -2536,25 +2507,25 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D6">
         <v>64.02088887225722</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F6">
         <v>64.31358443072048</v>
       </c>
       <c r="G6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H6">
         <v>64.44375164616912</v>
       </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J6">
         <v>64.89768659828428</v>
@@ -2568,25 +2539,25 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D7">
         <v>60.8847039890224</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F7">
         <v>64.14139165447284</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H7">
         <v>64.92337028205594</v>
       </c>
       <c r="I7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J7">
         <v>65.12396206685594</v>
@@ -2600,25 +2571,25 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D8">
         <v>61.89943671198756</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F8">
         <v>64.77108646591313</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H8">
         <v>65.02608910662099</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J8">
         <v>61.74033218325854</v>
@@ -2632,31 +2603,31 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D9">
         <v>64.72672371259466</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F9">
         <v>65.71824808498394</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H9">
         <v>61.21822976233301</v>
       </c>
       <c r="I9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J9">
         <v>65.74288342382255</v>
       </c>
       <c r="K9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L9">
         <v>64.14461467256081</v>
@@ -2670,43 +2641,43 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D10">
         <v>61.7720628213965</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F10">
         <v>64.06944111481556</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H10">
         <v>64.8415874819122</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J10">
         <v>58.37889325194539</v>
       </c>
       <c r="K10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L10">
         <v>65.41545464621163</v>
       </c>
       <c r="M10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N10">
         <v>64.1140872132674</v>
       </c>
       <c r="O10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P10">
         <v>62.75885207959993</v>

--- a/output/only_primer/one_plasmid_design_result.xlsx
+++ b/output/only_primer/one_plasmid_design_result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="154">
   <si>
     <t>ID</t>
   </si>
@@ -67,244 +67,244 @@
     <t>Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875</t>
   </si>
   <si>
-    <t>CCAAGAAGACAAAAAAATCCTAAAGCCCTGCCCACCGGATG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTAAGCGCCCGGGCATGTACAT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTTCATCATCGGCGGCCACATGT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTGGAATCACAGGCAGGGTGGGA</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTAACCCAAACCCTGCCCGAAG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTGGCCCAATGTGGTCCCTCGG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTCAACAGCTCCTCCTGGGCCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTGCAGGACAATAGCGTTACCCTGGT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTTTACCGGACACGCGCAACAC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTTCGCGGACAGGCCTTCACGAC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTTTTTGGCACGACTTGATGTGAGCC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTCAGACGGAGGGTCTGTTTAATGA</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAGTAAGCTTTTAAGTTTTCTCGGTGATCCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAGCGAGTTATTTCCGTGCGCGTTGGTGA</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAAAAACTACATGCGATTCTTGGTGCGCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAttaaCTACCTATTTGCGCGGTACCACT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAGTCTCAAAGTGGTGGTGATGCGCTTCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATTTAGACTTCTTCTTCGCGCCCAA</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAGGCACCTGAAATTTCCGTCATGCCGACC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTGGGACGCGCACGCCTCATGGATTC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTGGGAGCCTGCATTTATAAAGTGCTGACCC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTGGGAGGTGGTGTCCGAAAACCCGC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTGGGAAAGCTTGGGCCATTCCTGCT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTGGGATCCACATTGTTCGTGATCGCTTCGA</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTGGGATGGCTGCTGGACAATTCGGGA</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTGGGATGATCCTGCCGGTGAAGCGG</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTGGGACGAAGCAAGCGCGTGTAGATGA</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTGGGACTGCGTGCAGGTCCCTGGTT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAGCGAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAttaaCTACCTATTTGCGCGGTACCACTTAATCAGTGAATCAGTGGAAGAATCTCCCGAGTCAACATCCTCTTCACCAGAGACAGCCGGAGCGAGGTCATTTGCCTGCTGTTTGCCCAGTTCAACACCCCATTGGTCGAAGGAGTTGATGTCCCAAATCACGCCCTGAACCATCACGATGTGTTCGTACAAAGCGATCAACGCACCGAGAATAGAAGGGGTAAGTTCCTCCGCCAAAATGGTGGTGGTTGGGCGATTACCTGGCATGACCTTGTGGTTGACCAGCTCAGGTGCGACACCTTCCGCAGCGATCTCTTCAGCGTTCTTACCGAAAGCCAAAACCTTGGTCTGTGCGAAGAAGTTGCTCATCAAAAGGTCATGCATGGTGCGCTCACCGGCAGGAAGATCCTGCTTTGGACGAGCGAAACCAATGAAATCAGCTGGAACAAGGCGAGTGCCCTGGTGGATCAGCTGGAAGAAAGCGTGCTGGCCATTTGTGCCAGGCTCACCCCAGTAAATTTCGCCAGTGCCAGTGGAAACAGGGGAGCCGTCGCGGTGGACTGACTTGCCATTTGATTCCATGGTCAGCTGCTGGAGGTAAGCAGCAAAACGGCTGAGATCCTCGGAATAAGGTAGGACAGCGTGGGTTTCTGCACCATAGAAATCGGAGTACCAGACACCGAGCAGAGCCATCAAGATTGGAACGTTCTCTTCGAACTTGGTGGTGCGGAAGTGTTCATCCATCGCGTGGAATCCACCGAGGAAACGCATGAAGTCGCGAGGGCCGATCACTGCCATGAGGGAAAGACCAACTGCGGAGTCCACGGAGTAACGACCTCCGACCCAGTCCCAGAAGCCGAACATGTTGTCCGTGTCGATACCGAACTCTGCGACCTTTTCAGCATTGGTGGACACTGCGACGAAGTGCTTCGCGACAGCCTCTTCACCGAGCTTCTCTACCAGCCAAGCACGAGCTGCACGAGCGTTGGACAGCGTCTCCTGGGTGGTGAAAGTTTTCGAAGCGATCACGAACAATGTGGAAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAGTCTCAAAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATTTAGACTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCCCCTGGCCAGTGCAC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTCGGTGTGTTAATCCGCCAGCTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCTCTTCCACATGAAGAGCAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCAATAAAGGCACGCGCAAAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCATCTTTTGAATTTTCGCTTGCAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCACACAATTAGGCGGTCGAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGACGCGCATTGGACCCTTCGAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGGTGAAACGTCTGCCTCCCAAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATCGGTGGAAGACTAAGAAGAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCCCCTGGCCAGTGCACGTCTGCTGTCAGATAAAGTCTCCCGTGAACTTTACCCGGTGGTGCATATCGGGGATGAAAGCTGGCGCATGATGACCACCGATATGGCCAGTGTGCCGGTATCCGTTATCGGGGAAGAAGTGGCTGATCTCAGCCACCGCGAAAATGACATCAAAAACGCCATTAACCTGATGTTCTGGGGAATATAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATTAGAATAACTGAAGAAGAAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCGGTTTTAGAGCTAGAAATAGCAAGT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTAGGATCTTACCGCTGTTGAGATCCA</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAATGAACAAGGTTGCTCAATATTACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAatgaaaaacatcaatccaacgcaga</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTTTACGGCTCAAACGGGCGTCT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTttaaccgcgccacgctttatagc</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaAAAAAAACAGAAGAACC</t>
+    <t>CCAGGTCTCAATCCTAAAGCCCTGCCCACCGGATG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTAAGCGCCCGGGCATGTACAT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTTCATCATCGGCGGCCACATGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTGGAATCACAGGCAGGGTGGGA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTAACCCAAACCCTGCCCGAAG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTGGCCCAATGTGGTCCCTCGG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTCAACAGCTCCTCCTGGGCCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTGCAGGACAATAGCGTTACCCTGGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTTTACCGGACACGCGCAACAC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTCGCGGACAGGCCTTCACGAC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTTTTGGCACGACTTGATGTGAGCC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCAGACGGAGGGTCTGTTTAATGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTAAGCTTTTAAGTTTTCTCGGTGATCCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCGAGTTATTTCCGTGCGCGTTGGTGA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAAAACTACATGCGATTCTTGGTGCGCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAttaaCTACCTATTTGCGCGGTACCACT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTCTCAAAGTGGTGGTGATGCGCTTCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATTTAGACTTCTTCTTCGCGCCCAA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGGCACCTGAAATTTCCGTCATGCCGACC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTCACGCGCACGCCTCATGGATTC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTCAGCCTGCATTTATAAAGTGCTGACCC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTCAGGTGGTGTCCGAAAACCCGC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTCAAAGCTTGGGCCATTCCTGCT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTCATCCACATTGTTCGTGATCGCTTCGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTCATGGCTGCTGGACAATTCGGGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTCATGATCCTGCCGGTGAAGCGG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTCACGAAGCAAGCGCGTGTAGATGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTCACTGCGTGCAGGTCCCTGGTT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCGAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAttaaCTACCTATTTGCGCGGTACCACTTAATCAGTGAATCAGTGGAAGAATCTCCCGAGTCAACATCCTCTTCACCAGAGACAGCCGGAGCGAGGTCATTTGCCTGCTGTTTGCCCAGTTCAACACCCCATTGGTCGAAGGAGTTGATGTCCCAAATCACGCCCTGAACCATCACGATGTGTTCGTACAAAGCGATCAACGCACCGAGAATAGAAGGGGTAAGTTCCTCCGCCAAAATGGTGGTGGTTGGGCGATTACCTGGCATGACCTTGTGGTTGACCAGCTCAGGTGCGACACCTTCCGCAGCGATCTCTTCAGCGTTCTTACCGAAAGCCAAAACCTTGGTCTGTGCGAAGAAGTTGCTCATCAAAAGGTCATGCATGGTGCGCTCACCGGCAGGAAGATCCTGCTTTGGACGAGCGAAACCAATGAAATCAGCTGGAACAAGGCGAGTGCCCTGGTGGATCAGCTGGAAGAAAGCGTGCTGGCCATTTGTGCCAGGCTCACCCCAGTAAATTTCGCCAGTGCCAGTGGAAACAGGGGAGCCGTCGCGGTGGACTGACTTGCCATTTGATTCCATGGTCAGCTGCTGGAGGTAAGCAGCAAAACGGCTGAGATCCTCGGAATAAGGTAGGACAGCGTGGGTTTCTGCACCATAGAAATCGGAGTACCAGACACCGAGCAGAGCCATCAAGATTGGAACGTTCTCTTCGAACTTGGTGGTGCGGAAGTGTTCATCCATCGCGTGGAATCCACCGAGGAAACGCATGAAGTCGCGAGGGCCGATCACTGCCATGAGGGAAAGACCAACTGCGGAGTCCACGGAGTAACGACCTCCGACCCAGTCCCAGAAGCCGAACATGTTGTCCGTGTCGATACCGAACTCTGCGACCTTTTCAGCATTGGTGGACACTGCGACGAAGTGCTTCGCGACAGCCTCTTCACCGAGCTTCTCTACCAGCCAAGCACGAGCTGCACGAGCGTTGGACAGCGTCTCCTGGGTGGTGAAAGTTTTCGAAGCGATCACGAACAATGTGGAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTCTCAAAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATTTAGACTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGGTGTGTTAATCCGCCAGCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCTCTTCCACATGAAGAGCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCAATAAAGGCACGCGCAAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCATCTTTTGAATTTTCGCTTGCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCACACAATTAGGCGGTCGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGACGCGCATTGGACCCTTCGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGGTGAAACGTCTGCCTCCCAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATCGGTGGAAGACTAAGAAGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATTAGAATAACTGAAGAAGAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCGGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTAGGATCTTACCGCTGTTGAGATCCA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAATGAACAAGGTTGCTCAATATTACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAatgaaaaacatcaatccaacgcaga</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTTACGGCTCAAACGGGCGTCT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTttaaccgcgccacgctttatagc</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaAACTCTGGACC</t>
   </si>
   <si>
     <t>SEQUENCING_PRIMER_1</t>
@@ -355,34 +355,10 @@
     <t>SEQUENCING_PRIMER_8_TM</t>
   </si>
   <si>
-    <t>SEQUENCING_PRIMER_9</t>
-  </si>
-  <si>
-    <t>SEQUENCING_PRIMER_9_TM</t>
-  </si>
-  <si>
-    <t>SEQUENCING_PRIMER_10</t>
-  </si>
-  <si>
-    <t>SEQUENCING_PRIMER_10_TM</t>
-  </si>
-  <si>
-    <t>SEQUENCING_PRIMER_11</t>
-  </si>
-  <si>
-    <t>SEQUENCING_PRIMER_11_TM</t>
-  </si>
-  <si>
-    <t>SEQUENCING_PRIMER_12</t>
-  </si>
-  <si>
-    <t>SEQUENCING_PRIMER_12_TM</t>
-  </si>
-  <si>
     <t>TTGCTCACCCAGAAACGCTG</t>
   </si>
   <si>
-    <t>TCGGTGGTCATCATGCGCCA</t>
+    <t>GAGCTGATACCGCTCGCCGC</t>
   </si>
   <si>
     <t>GAGCGCAACTCGGATGATCC</t>
@@ -451,19 +427,7 @@
     <t>AGGGGTAAGTTCCTCCGCCA</t>
   </si>
   <si>
-    <t>GGCACTGTTCGACACAACCGC</t>
-  </si>
-  <si>
-    <t>GCAATGCGCGCCATTACCGA</t>
-  </si>
-  <si>
-    <t>ACGCTGATGTACGTCGTGAA</t>
-  </si>
-  <si>
-    <t>GCAAGTTAAAATAAGGCTAGTCCGT</t>
-  </si>
-  <si>
-    <t>TGGCCACGTTTAAATCAAAACTGGT</t>
+    <t>TATGGTCAATGTCGCGGGGG</t>
   </si>
   <si>
     <t>TCGGATAAGTAGCGAGGAGT</t>
@@ -918,7 +882,7 @@
         <v>33</v>
       </c>
       <c r="F2">
-        <v>1076</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -938,7 +902,7 @@
         <v>34</v>
       </c>
       <c r="F3">
-        <v>1065</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -958,7 +922,7 @@
         <v>35</v>
       </c>
       <c r="F4">
-        <v>1073</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -978,7 +942,7 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>1120</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -998,7 +962,7 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <v>1078</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1018,7 +982,7 @@
         <v>38</v>
       </c>
       <c r="F7">
-        <v>1072</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1038,7 +1002,7 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>1061</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1058,7 +1022,7 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>1065</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1078,7 +1042,7 @@
         <v>41</v>
       </c>
       <c r="F10">
-        <v>1061</v>
+        <v>1049</v>
       </c>
     </row>
   </sheetData>
@@ -1131,7 +1095,7 @@
         <v>60</v>
       </c>
       <c r="F2">
-        <v>1075</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1151,7 +1115,7 @@
         <v>61</v>
       </c>
       <c r="F3">
-        <v>1077</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1171,7 +1135,7 @@
         <v>62</v>
       </c>
       <c r="F4">
-        <v>1062</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1191,7 +1155,7 @@
         <v>63</v>
       </c>
       <c r="F5">
-        <v>1090</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1211,7 +1175,7 @@
         <v>64</v>
       </c>
       <c r="F6">
-        <v>1073</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1231,7 +1195,7 @@
         <v>65</v>
       </c>
       <c r="F7">
-        <v>1078</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1251,7 +1215,7 @@
         <v>66</v>
       </c>
       <c r="F8">
-        <v>1067</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1271,7 +1235,7 @@
         <v>67</v>
       </c>
       <c r="F9">
-        <v>1063</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1291,7 +1255,7 @@
         <v>68</v>
       </c>
       <c r="F10">
-        <v>1061</v>
+        <v>1049</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1308,7 @@
         <v>78</v>
       </c>
       <c r="F2">
-        <v>3899</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1364,7 +1328,7 @@
         <v>79</v>
       </c>
       <c r="F3">
-        <v>3899</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1384,7 +1348,7 @@
         <v>80</v>
       </c>
       <c r="F4">
-        <v>3899</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1404,7 +1368,7 @@
         <v>81</v>
       </c>
       <c r="F5">
-        <v>3899</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1424,7 +1388,7 @@
         <v>78</v>
       </c>
       <c r="F6">
-        <v>3899</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1444,7 +1408,7 @@
         <v>82</v>
       </c>
       <c r="F7">
-        <v>3899</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1464,7 +1428,7 @@
         <v>83</v>
       </c>
       <c r="F8">
-        <v>3899</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1484,7 +1448,7 @@
         <v>84</v>
       </c>
       <c r="F9">
-        <v>3899</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1504,7 +1468,7 @@
         <v>85</v>
       </c>
       <c r="F10">
-        <v>3899</v>
+        <v>3681</v>
       </c>
     </row>
   </sheetData>
@@ -1557,7 +1521,7 @@
         <v>88</v>
       </c>
       <c r="F2">
-        <v>7725</v>
+        <v>7713</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1574,7 @@
         <v>93</v>
       </c>
       <c r="F2">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1630,7 +1594,7 @@
         <v>94</v>
       </c>
       <c r="F3">
-        <v>1684</v>
+        <v>1672</v>
       </c>
     </row>
   </sheetData>
@@ -1640,13 +1604,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1701,32 +1665,8 @@
       <c r="R1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1734,67 +1674,43 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D2">
         <v>61.16590711741475</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F2">
-        <v>64.65471339725246</v>
+        <v>65.96384986687252</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H2">
         <v>61.21822976233301</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J2">
         <v>65.74288342382255</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="L2">
         <v>64.14461467256081</v>
       </c>
       <c r="Q2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="R2">
-        <v>64.8362495055091</v>
-      </c>
-      <c r="S2" t="s">
-        <v>144</v>
-      </c>
-      <c r="T2">
-        <v>64.70870125962665</v>
-      </c>
-      <c r="U2" t="s">
-        <v>145</v>
-      </c>
-      <c r="V2">
-        <v>59.7609178431743</v>
-      </c>
-      <c r="W2" t="s">
-        <v>146</v>
-      </c>
-      <c r="X2">
-        <v>59.64659960774634</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z2">
-        <v>62.13130210482524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>62.3185185163494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1802,61 +1718,37 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D3">
         <v>61.16590711741475</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F3">
-        <v>64.65471339725246</v>
+        <v>65.96384986687252</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H3">
         <v>64.74457393037193</v>
       </c>
       <c r="I3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J3">
         <v>64.78597081263268</v>
       </c>
       <c r="Q3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="R3">
-        <v>64.8362495055091</v>
-      </c>
-      <c r="S3" t="s">
-        <v>144</v>
-      </c>
-      <c r="T3">
-        <v>64.70870125962665</v>
-      </c>
-      <c r="U3" t="s">
-        <v>145</v>
-      </c>
-      <c r="V3">
-        <v>59.7609178431743</v>
-      </c>
-      <c r="W3" t="s">
-        <v>146</v>
-      </c>
-      <c r="X3">
-        <v>59.64659960774634</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z3">
-        <v>62.13130210482524</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+        <v>62.3185185163494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1864,61 +1756,37 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D4">
         <v>61.16590711741475</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F4">
-        <v>64.65471339725246</v>
+        <v>65.96384986687252</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H4">
         <v>65.02608910662099</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J4">
         <v>61.74033218325854</v>
       </c>
       <c r="Q4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="R4">
-        <v>64.8362495055091</v>
-      </c>
-      <c r="S4" t="s">
-        <v>144</v>
-      </c>
-      <c r="T4">
-        <v>64.70870125962665</v>
-      </c>
-      <c r="U4" t="s">
-        <v>145</v>
-      </c>
-      <c r="V4">
-        <v>59.7609178431743</v>
-      </c>
-      <c r="W4" t="s">
-        <v>146</v>
-      </c>
-      <c r="X4">
-        <v>59.64659960774634</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z4">
-        <v>62.13130210482524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>62.3185185163494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1926,61 +1794,37 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D5">
         <v>61.16590711741475</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F5">
-        <v>64.65471339725246</v>
+        <v>65.96384986687252</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H5">
         <v>64.92337028205594</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J5">
         <v>65.12396206685594</v>
       </c>
       <c r="Q5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="R5">
-        <v>64.8362495055091</v>
-      </c>
-      <c r="S5" t="s">
-        <v>144</v>
-      </c>
-      <c r="T5">
-        <v>64.70870125962665</v>
-      </c>
-      <c r="U5" t="s">
-        <v>145</v>
-      </c>
-      <c r="V5">
-        <v>59.7609178431743</v>
-      </c>
-      <c r="W5" t="s">
-        <v>146</v>
-      </c>
-      <c r="X5">
-        <v>59.64659960774634</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z5">
-        <v>62.13130210482524</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+        <v>62.3185185163494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1988,79 +1832,55 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D6">
         <v>61.16590711741475</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F6">
-        <v>64.65471339725246</v>
+        <v>65.96384986687252</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H6">
         <v>64.8415874819122</v>
       </c>
       <c r="I6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J6">
         <v>58.37889325194539</v>
       </c>
       <c r="K6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L6">
         <v>65.41545464621163</v>
       </c>
       <c r="M6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="N6">
         <v>64.1140872132674</v>
       </c>
       <c r="O6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="P6">
         <v>62.75885207959993</v>
       </c>
       <c r="Q6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="R6">
-        <v>64.8362495055091</v>
-      </c>
-      <c r="S6" t="s">
-        <v>144</v>
-      </c>
-      <c r="T6">
-        <v>64.70870125962665</v>
-      </c>
-      <c r="U6" t="s">
-        <v>145</v>
-      </c>
-      <c r="V6">
-        <v>59.7609178431743</v>
-      </c>
-      <c r="W6" t="s">
-        <v>146</v>
-      </c>
-      <c r="X6">
-        <v>59.64659960774634</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z6">
-        <v>62.13130210482524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>62.3185185163494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2068,61 +1888,37 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D7">
         <v>61.16590711741475</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F7">
-        <v>64.65471339725246</v>
+        <v>65.96384986687252</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H7">
         <v>64.44375164616912</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J7">
         <v>64.89768659828428</v>
       </c>
       <c r="Q7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="R7">
-        <v>64.8362495055091</v>
-      </c>
-      <c r="S7" t="s">
-        <v>144</v>
-      </c>
-      <c r="T7">
-        <v>64.70870125962665</v>
-      </c>
-      <c r="U7" t="s">
-        <v>145</v>
-      </c>
-      <c r="V7">
-        <v>59.7609178431743</v>
-      </c>
-      <c r="W7" t="s">
-        <v>146</v>
-      </c>
-      <c r="X7">
-        <v>59.64659960774634</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z7">
-        <v>62.13130210482524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>62.3185185163494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2130,61 +1926,37 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D8">
         <v>61.16590711741475</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F8">
-        <v>64.65471339725246</v>
+        <v>65.96384986687252</v>
       </c>
       <c r="G8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H8">
         <v>65.40702009302714</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J8">
         <v>58.31605672573471</v>
       </c>
       <c r="Q8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="R8">
-        <v>64.8362495055091</v>
-      </c>
-      <c r="S8" t="s">
-        <v>144</v>
-      </c>
-      <c r="T8">
-        <v>64.70870125962665</v>
-      </c>
-      <c r="U8" t="s">
-        <v>145</v>
-      </c>
-      <c r="V8">
-        <v>59.7609178431743</v>
-      </c>
-      <c r="W8" t="s">
-        <v>146</v>
-      </c>
-      <c r="X8">
-        <v>59.64659960774634</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z8">
-        <v>62.13130210482524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>62.3185185163494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2192,61 +1964,37 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D9">
         <v>61.16590711741475</v>
       </c>
       <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9">
+        <v>65.96384986687252</v>
+      </c>
+      <c r="G9" t="s">
         <v>120</v>
-      </c>
-      <c r="F9">
-        <v>64.65471339725246</v>
-      </c>
-      <c r="G9" t="s">
-        <v>128</v>
       </c>
       <c r="H9">
         <v>59.06550446538768</v>
       </c>
       <c r="I9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J9">
         <v>64.75610972804407</v>
       </c>
       <c r="Q9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="R9">
-        <v>64.8362495055091</v>
-      </c>
-      <c r="S9" t="s">
-        <v>144</v>
-      </c>
-      <c r="T9">
-        <v>64.70870125962665</v>
-      </c>
-      <c r="U9" t="s">
-        <v>145</v>
-      </c>
-      <c r="V9">
-        <v>59.7609178431743</v>
-      </c>
-      <c r="W9" t="s">
-        <v>146</v>
-      </c>
-      <c r="X9">
-        <v>59.64659960774634</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z9">
-        <v>62.13130210482524</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+        <v>62.3185185163494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2254,58 +2002,34 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D10">
         <v>61.16590711741475</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F10">
-        <v>64.65471339725246</v>
+        <v>65.96384986687252</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H10">
         <v>61.48881682687846</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J10">
         <v>64.35166066214509</v>
       </c>
       <c r="Q10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="R10">
-        <v>64.8362495055091</v>
-      </c>
-      <c r="S10" t="s">
-        <v>144</v>
-      </c>
-      <c r="T10">
-        <v>64.70870125962665</v>
-      </c>
-      <c r="U10" t="s">
-        <v>145</v>
-      </c>
-      <c r="V10">
-        <v>59.7609178431743</v>
-      </c>
-      <c r="W10" t="s">
-        <v>146</v>
-      </c>
-      <c r="X10">
-        <v>59.64659960774634</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z10">
-        <v>62.13130210482524</v>
+        <v>62.3185185163494</v>
       </c>
     </row>
   </sheetData>
@@ -2379,25 +2103,25 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D2">
         <v>57.3651846291707</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F2">
         <v>64.92306747221159</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H2">
         <v>64.74457393037193</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J2">
         <v>64.78597081263268</v>
@@ -2411,25 +2135,25 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D3">
         <v>63.3812861436196</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F3">
         <v>60.88051506593223</v>
       </c>
       <c r="G3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H3">
         <v>65.40702009302714</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J3">
         <v>58.31605672573471</v>
@@ -2443,25 +2167,25 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D4">
         <v>62.93038493198372</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F4">
         <v>65.14584171422513</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H4">
         <v>61.48881682687846</v>
       </c>
       <c r="I4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J4">
         <v>64.35166066214509</v>
@@ -2475,25 +2199,25 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D5">
         <v>60.09312810356755</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F5">
         <v>65.75879292443648</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H5">
         <v>59.06550446538768</v>
       </c>
       <c r="I5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J5">
         <v>64.75610972804407</v>
@@ -2507,25 +2231,25 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D6">
         <v>64.02088887225722</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F6">
         <v>64.31358443072048</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H6">
         <v>64.44375164616912</v>
       </c>
       <c r="I6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J6">
         <v>64.89768659828428</v>
@@ -2539,25 +2263,25 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D7">
         <v>60.8847039890224</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F7">
         <v>64.14139165447284</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H7">
         <v>64.92337028205594</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J7">
         <v>65.12396206685594</v>
@@ -2571,25 +2295,25 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D8">
         <v>61.89943671198756</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F8">
         <v>64.77108646591313</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H8">
         <v>65.02608910662099</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J8">
         <v>61.74033218325854</v>
@@ -2603,31 +2327,31 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D9">
         <v>64.72672371259466</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F9">
         <v>65.71824808498394</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H9">
         <v>61.21822976233301</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J9">
         <v>65.74288342382255</v>
       </c>
       <c r="K9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="L9">
         <v>64.14461467256081</v>
@@ -2641,43 +2365,43 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D10">
         <v>61.7720628213965</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F10">
         <v>64.06944111481556</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H10">
         <v>64.8415874819122</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J10">
         <v>58.37889325194539</v>
       </c>
       <c r="K10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L10">
         <v>65.41545464621163</v>
       </c>
       <c r="M10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="N10">
         <v>64.1140872132674</v>
       </c>
       <c r="O10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="P10">
         <v>62.75885207959993</v>
